--- a/outputs/excel/emergency_activities_since_2012.xlsx
+++ b/outputs/excel/emergency_activities_since_2012.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-20T18:52:40.400986</t>
+          <t>2025-12-22T11:18:41.686171</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-20T19:57:32.165789</t>
+          <t>2025-12-26T13:04:29.935015</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -662,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>

--- a/outputs/excel/emergency_activities_since_2012.xlsx
+++ b/outputs/excel/emergency_activities_since_2012.xlsx
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>21</v>

--- a/outputs/excel/emergency_activities_since_2012.xlsx
+++ b/outputs/excel/emergency_activities_since_2012.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,67 +422,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>countries</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>category</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>centroid</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>activationTime</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>lastUpdate</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>drmPhase</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>n_aois</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>n_products</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>search_snippet</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>past_items_search_text</t>
         </is>
@@ -647,7 +635,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-01-13T13:30:50.368337</t>
+          <t>2026-01-21T10:42:38.588817</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2490,7 +2478,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMSR820</t>
+          <t>EMSR821</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2505,12 +2493,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wildfire in East Attica, Greece</t>
+          <t>Wildfire in Peloponnese, Greece</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>POINT (23.802395 38.169519)</t>
+          <t>POINT (21.790352 37.231148)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2520,7 +2508,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-07-28T13:24:34.744611</t>
+          <t>2025-07-28T15:11:33.550671</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2535,11 +2523,11 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>On the 26 July 2025 at 18:24 (CET), a wildfire was reported to have affected the area near Krioneri, in the outskirts of Athens, Greece. The fire expanded rapidly; residents of Krioneri and Drosopigi had to be evacuated, and a 112 cell-broadcasting message was sent for this purpose. Ground forces...</t>
+          <t>On the 26 July 2025 at 15:08 (CET), a wildfire was reported to have affected the area very close to Aetos in Peloponnese Region, Greece. The fire expanded rapidly; residents of Aetos and Monastiri had to be evacuated, and a 112 cell-broadcasting message was sent for this purpose. Ground forces an...</t>
         </is>
       </c>
       <c r="M37" t="inlineStr"/>
@@ -2547,7 +2535,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EMSR821</t>
+          <t>EMSR820</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2562,12 +2550,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wildfire in Peloponnese, Greece</t>
+          <t>Wildfire in East Attica, Greece</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>POINT (21.790352 37.231148)</t>
+          <t>POINT (23.802395 38.169519)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2577,7 +2565,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-07-28T15:11:33.550671</t>
+          <t>2025-07-28T13:24:34.744611</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2592,11 +2580,11 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>On the 26 July 2025 at 15:08 (CET), a wildfire was reported to have affected the area very close to Aetos in Peloponnese Region, Greece. The fire expanded rapidly; residents of Aetos and Monastiri had to be evacuated, and a 112 cell-broadcasting message was sent for this purpose. Ground forces an...</t>
+          <t>On the 26 July 2025 at 18:24 (CET), a wildfire was reported to have affected the area near Krioneri, in the outskirts of Athens, Greece. The fire expanded rapidly; residents of Krioneri and Drosopigi had to be evacuated, and a 112 cell-broadcasting message was sent for this purpose. Ground forces...</t>
         </is>
       </c>
       <c r="M38" t="inlineStr"/>
@@ -7419,7 +7407,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -7429,7 +7417,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>POINT (36.8067 6.35863)</t>
+          <t>POINT (36.80669999999999 6.358629999999989)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -7439,7 +7427,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-02-18T17:56:18.364616</t>
+          <t>2025-02-18T17:56:18</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7456,7 +7444,11 @@
       <c r="K125" t="n">
         <v>4</v>
       </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>In July 2024, Gezei Gofa Woreda in Gofa Zone, South Ethiopia Region was struck by a catastrophic series of landslides, triggered by unusually heavy rainfall which caused the collapse of the unstable, deforested slopes; resulted in destruction of houses, significant infrastructures, as well as agr...</t>
+        </is>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -8703,7 +8695,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -10157,27 +10149,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EMSN184</t>
+          <t>EMSN183</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Greece'}]</t>
+          <t>[{'short_name': 'Spain'}]</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{'slug': 'flood', 'name': 'Flood'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Flood in Thessaly Region, Greece</t>
+          <t>Forest fire impact assessment in Sierra de Los Guajares, Spain</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>POINT (23.19128 38.87509)</t>
+          <t>POINT (3.60201 36.85033)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -10198,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
@@ -10206,27 +10198,27 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>EMSN183</t>
+          <t>EMSN184</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Spain'}]</t>
+          <t>[{'short_name': 'Greece'}]</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
+          <t>{'slug': 'flood', 'name': 'Flood'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Forest fire impact assessment in Sierra de Los Guajares, Spain</t>
+          <t>Flood in Thessaly Region, Greece</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>POINT (3.60201 36.85033)</t>
+          <t>POINT (23.19128 38.87509)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -10247,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
@@ -11052,7 +11044,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -11062,7 +11054,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>POINT (14.41944 46.08333)</t>
+          <t>POINT (14.41944 46.08332999999999)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -11070,7 +11062,11 @@
           <t>2023-09-22T14:15:00</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:00:28.080251</t>
+        </is>
+      </c>
       <c r="H192" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -11106,7 +11102,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -11116,7 +11112,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>POINT (15.7822 46.45891)</t>
+          <t>POINT (15.782199999999998 46.458909999999996)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -11124,7 +11120,11 @@
           <t>2023-09-17T01:00:00</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:01:24.790443</t>
+        </is>
+      </c>
       <c r="H193" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>POINT (11.881 44.117)</t>
+          <t>POINT (11.881 44.11699999999999)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -13180,7 +13180,11 @@
           <t>2023-06-13T11:28:00</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:01:07.953395</t>
+        </is>
+      </c>
       <c r="H231" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -13488,7 +13492,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -13508,7 +13512,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2025-12-12T10:38:33.548346</t>
+          <t>2025-12-12T10:38:33</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -14380,7 +14384,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -14390,7 +14394,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>POINT (13.9002 40.73938)</t>
+          <t>POINT (13.900199999999998 40.73937999999999)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -14398,7 +14402,11 @@
           <t>2023-02-23T09:54:00</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:19:18.646745</t>
+        </is>
+      </c>
       <c r="H253" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -21699,7 +21707,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>EMSN108</t>
+          <t>EMSN109</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -21714,12 +21722,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Wildfire in San Felices de los Gallegos, Spain</t>
+          <t>Wildfire in Alcaracejos, Spain</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>POINT (-6.67526 40.8026)</t>
+          <t>POINT (-4.94932 38.2282)</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -21744,19 +21752,19 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Spanish pro...</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the muni...</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Spanish province of Salamanca (Spain), on 17th August 2021. Active flames were located in San Felices de los Gallegos and Bañobrez, as well as in the areas known as La Granja and Los Navazos, on the edge of the Arr P07-Wildfire Delineation and Grading</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the municipality of Alcaracejos, in the region of Cordoba-Andalucía (Spain), on 16thAugust 2021. According to Infoca Plan, the initial damage assessment resulted in about 610 ha burnt; the fire not only destroye P07-Wildfire Delineation and Grading</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>EMSN110</t>
+          <t>EMSN108</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -21771,12 +21779,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Wildfire in Alburquerque, Spain</t>
+          <t>Wildfire in San Felices de los Gallegos, Spain</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>POINT (-6.85472 40.02093)</t>
+          <t>POINT (-6.67526 40.8026)</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -21801,19 +21809,19 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the muni...</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Spanish pro...</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the municipality of Alburquerque in the region of Badajoz (Spain), on 18thAugust 2021. It spread in different directions, burning cultivated areas, grassland and mountains, until it was extinguished on 22ndAugus P07-Wildfire Delineation and Grading</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Spanish province of Salamanca (Spain), on 17th August 2021. Active flames were located in San Felices de los Gallegos and Bañobrez, as well as in the areas known as La Granja and Los Navazos, on the edge of the Arr P07-Wildfire Delineation and Grading</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>EMSN109</t>
+          <t>EMSN110</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -21828,12 +21836,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Wildfire in Alcaracejos, Spain</t>
+          <t>Wildfire in Alburquerque, Spain</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>POINT (-4.94932 38.2282)</t>
+          <t>POINT (-6.85472 40.02093)</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -21863,7 +21871,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the municipality of Alcaracejos, in the region of Cordoba-Andalucía (Spain), on 16thAugust 2021. According to Infoca Plan, the initial damage assessment resulted in about 610 ha burnt; the fire not only destroye P07-Wildfire Delineation and Grading</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the in the municipality of Alburquerque in the region of Badajoz (Spain), on 18thAugust 2021. It spread in different directions, burning cultivated areas, grassland and mountains, until it was extinguished on 22ndAugus P07-Wildfire Delineation and Grading</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23423,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>EMSN101</t>
+          <t>EMSN100</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -23430,12 +23438,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Wildfire in Ciudad Real, Spain</t>
+          <t>Wildfires in La Rioja, Spain</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>POINT (-4.85493 38.75007)</t>
+          <t>POINT (-2.01861 42.15347)</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -23460,19 +23468,19 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Ciudad Real...</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in La Rioja region...</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Ciudad Real province (Castilla la Mancha region, Spain) on 12thJuly 2021. The wildfire hit especially the municipalities of Chillón and Almadén, where about 2000 ha of an agricultural land burnt. The goal of the ac Fire Delineation and Grading</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in La Rioja region (North-Eastern Spain) on 18thJuly 2021. Within the municipalities of Autol, Grvalos, Quel and Villarroya more than 200 hectares of wooden areas have burnt. The event affected also more than 360 hectares Fire Delineation and Grading</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>EMSN100</t>
+          <t>EMSN101</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -23487,12 +23495,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Wildfires in La Rioja, Spain</t>
+          <t>Wildfire in Ciudad Real, Spain</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>POINT (-2.01861 42.15347)</t>
+          <t>POINT (-4.85493 38.75007)</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -23517,12 +23525,12 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in La Rioja region...</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Ciudad Real...</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in La Rioja region (North-Eastern Spain) on 18thJuly 2021. Within the municipalities of Autol, Grvalos, Quel and Villarroya more than 200 hectares of wooden areas have burnt. The event affected also more than 360 hectares Fire Delineation and Grading</t>
+          <t>The CEMS Risk and Recovery Standard (RRM STD) has been activated by the Spanish General Directorate of Civil Protection and Emergencies (CENEM) on behalf of the Ministry of Interior of Spain, D. G. Guardia Civil and Jefatura del Seprona, following the forest fire that broke out in the Ciudad Real province (Castilla la Mancha region, Spain) on 12thJuly 2021. The wildfire hit especially the municipalities of Chillón and Almadén, where about 2000 ha of an agricultural land burnt. The goal of the ac Fire Delineation and Grading</t>
         </is>
       </c>
     </row>
@@ -24450,27 +24458,27 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>EMSN091</t>
+          <t>EMSN093</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Philippines'}]</t>
+          <t>[{'short_name': 'Spain'}]</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Assessing changes in subsidence rates in the low Pampanga river basin and Manila area, Philippines</t>
+          <t>Rockfall risk analysis in Valle Gran Rey, La Gomera (Spain)</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>POINT (120.7985 14.78801)</t>
+          <t>POINT (-17.31476 28.102249999999998)</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -24478,10 +24486,14 @@
           <t>2021-04-30T01:00:00</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:00:57.435407</t>
+        </is>
+      </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>recovery</t>
+          <t>preparedness</t>
         </is>
       </c>
       <c r="I435" t="b">
@@ -24491,68 +24503,14 @@
         <v>1</v>
       </c>
       <c r="K435" t="n">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>EMSN093 was activated to demonstrate that satellite-derived data can be used to study small-medium sized rockfalls, as the one occurred in Valle Gran Rey of the La Gomera island (Canary Islands, Spain) on the 14thof November 2021. Moreover, the results will support local authorities by offering i...</t>
+        </is>
+      </c>
       <c r="M435" t="inlineStr">
-        <is>
-          <t>The service was activated by a request from the Federal Office of Civil Protection and Disaster Assistance (BBK) on behalf of Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) – authorized user, and the University of Philippines – local user. Several sources suggest that the Manila NCR and lower Pampanga river basin, Philippines, has been affected by ground subsidence phenomena impacting settlements and increasing flood risk.
-The EMS service aims to provide evidence of ground motion Ground Deformation – Overview key map (Overview A1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>EMSN093</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>[{'short_name': 'Spain'}]</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>Rockfall risk analysis in Valle Gran Rey, La Gomera (Spain)</t>
-        </is>
-      </c>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>POINT (-17.31476 28.10225)</t>
-        </is>
-      </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>2021-04-30T01:00:00</t>
-        </is>
-      </c>
-      <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>preparedness</t>
-        </is>
-      </c>
-      <c r="I436" t="b">
-        <v>1</v>
-      </c>
-      <c r="J436" t="n">
-        <v>1</v>
-      </c>
-      <c r="K436" t="n">
-        <v>6</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>EMSN093 was activated to demonstrate that satellite-derived data can be used to study small-medium sized rockfalls, as the one occurred in Valle Gran Rey of the La Gomera island (Canary Islands, Spain) on the 14thof November 2021. Moreover, the results will support local authorities by offering i...</t>
-        </is>
-      </c>
-      <c r="M436" t="inlineStr">
         <is>
           <t>EMSN093 was activated to demonstrate that satellite-derived data can be used to study small-medium sized rockfalls, as the one occurred in Valle Gran Rey of the La Gomera island (Canary Islands, Spain) on the 14thof November 2021. Moreover, the results will support local authorities by offering information on the potential hazard of the area, to carry out the adequate management plans.
 The products resulting from this activation are:
@@ -24561,6 +24519,60 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>EMSN091</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>[{'short_name': 'Philippines'}]</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>{'slug': 'other', 'name': 'Other'}</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Assessing changes in subsidence rates in the low Pampanga river basin and Manila area, Philippines</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>POINT (120.7985 14.78801)</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-04-30T01:00:00</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>recovery</t>
+        </is>
+      </c>
+      <c r="I436" t="b">
+        <v>1</v>
+      </c>
+      <c r="J436" t="n">
+        <v>1</v>
+      </c>
+      <c r="K436" t="n">
+        <v>1</v>
+      </c>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>The service was activated by a request from the Federal Office of Civil Protection and Disaster Assistance (BBK) on behalf of Deutsche Gesellschaft für Internationale Zusammenarbeit (GIZ) – authorized user, and the University of Philippines – local user. Several sources suggest that the Manila NCR and lower Pampanga river basin, Philippines, has been affected by ground subsidence phenomena impacting settlements and increasing flood risk.
+The EMS service aims to provide evidence of ground motion Ground Deformation – Overview key map (Overview A1)</t>
+        </is>
+      </c>
+    </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
@@ -25164,7 +25176,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -25174,7 +25186,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>POINT (-16.88061 32.80634)</t>
+          <t>POINT (-16.88061 32.80633999999999)</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -25182,7 +25194,11 @@
           <t>2021-03-12T15:06:00</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:00:47.846307</t>
+        </is>
+      </c>
       <c r="H447" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -25197,7 +25213,11 @@
       <c r="K447" t="n">
         <v>6</v>
       </c>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>A storm brought strong winds and heavy rain to parts of the Portuguese island of Madeira on 25 December 2020 . Flooding and landslides were reported in the municipality of São Vicente. Local media reported 20 people were evacuated in Ponta Delgada and 7 in Boaventura. One house was destroyed and...</t>
+        </is>
+      </c>
       <c r="M447" t="inlineStr">
         <is>
           <t>A storm brought strong winds and heavy rain to parts of the Portuguese island of Madeira on 25 December 2020 . Flooding and landslides were reported in the municipality of São Vicente. Local media reported 20 people were evacuated in Ponta Delgada and 7 in Boaventura. One house was destroyed and several others severely damaged. Dozens of roads were closed, leaving some areas isolated, and power lines were downed leaving many residents without electricity. Several areas recorded more than 100 mm  Digital Surface Model Post-Disaster Landslide Risk Assessment Reconstruction monitoring Detailed Damage Assessment - 1:5,000 Land Use Land Cover - CLC UPDATE @1:25,000 Reference Dataset - 1:5,000</t>
@@ -25217,7 +25237,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'mass', 'name': 'Mass Movement'}</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -25235,7 +25255,11 @@
           <t>2021-03-12T14:30:00</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>2026-01-20T10:00:36.515961</t>
+        </is>
+      </c>
       <c r="H448" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -25250,7 +25274,11 @@
       <c r="K448" t="n">
         <v>7</v>
       </c>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>The scope of the current activation is the support of Regional Civil Protection of Friuli Venezia Giulia (Italy) with geospatial analysis regarding the extent of the recent avalanches and their associated impacts, as well as a pre-event avalanche hazard and exposure of assets and population over...</t>
+        </is>
+      </c>
       <c r="M448" t="inlineStr">
         <is>
           <t>The scope of the current activation is the support of Regional Civil Protection of Friuli Venezia Giulia (Italy) with geospatial analysis regarding the extent of the recent avalanches and their associated impacts, as well as a pre-event avalanche hazard and exposure of assets and population over the remote locality of Sauris in the province of Udine. Between December 2020 and January 2021 intense snowfalls affected Region Friuli Venezia Giulia. In that period several warnings for avalanche risks Avalanche exposure settlement Avalanche exposure population Avalanche exposure infrastructure Avalanche hazard Damage assessment Avalanche delineation Reference dataset</t>
@@ -28873,7 +28901,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -28883,7 +28911,7 @@
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>POINT (50.7134 30.6258)</t>
+          <t>POINT (50.7134 30.625799999999998)</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -28891,7 +28919,11 @@
           <t>2020-07-09T12:04:00</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr"/>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:58:33.643452</t>
+        </is>
+      </c>
       <c r="H512" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -28906,7 +28938,12 @@
       <c r="K512" t="n">
         <v>6</v>
       </c>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>The CEMS Risk and Recovery Standard has been activated to assess the damage occurred as a consequence of unprecedented frequent wildfire occurred in south and southwestern part of Iran which took place since the end of May and until June 2020.
+The Standard products that were produced to estimate...</t>
+        </is>
+      </c>
       <c r="M512" t="inlineStr">
         <is>
           <t>The CEMS Risk and Recovery Standard has been activated to assess the damage occurred as a consequence of unprecedented frequent wildfire occurred in south and southwestern part of Iran which took place since the end of May and until June 2020.
@@ -29665,7 +29702,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -29683,7 +29720,11 @@
           <t>2020-04-20T01:00:00</t>
         </is>
       </c>
-      <c r="G526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:58:24.251548</t>
+        </is>
+      </c>
       <c r="H526" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -29698,7 +29739,11 @@
       <c r="K526" t="n">
         <v>8</v>
       </c>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>The current activation addressed the forest fire that took place on 6 August 2015, in the municipality of Acebo, Cceres, Spain, and burned approximately 8,160 ha of pine trees and shrub land. It aims to evaluate the recovery of forests in terms of reduced soil erosion and the recovery of the flor...</t>
+        </is>
+      </c>
       <c r="M526" t="inlineStr">
         <is>
           <t>The current activation addressed the forest fire that took place on 6 August 2015, in the municipality of Acebo, Cceres, Spain, and burned approximately 8,160 ha of pine trees and shrub land. It aims to evaluate the recovery of forests in terms of reduced soil erosion and the recovery of the flora.
@@ -29766,27 +29811,27 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>EMSN066</t>
+          <t>EMSN071</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Iran'}]</t>
+          <t>[{'short_name': 'Germany'}]</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>{'slug': 'flood', 'name': 'Flood'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Flood delineation and flood damage assessment, Iran</t>
+          <t>Wildfires, Preparedness, Arnsberg, Germany</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>POINT (58.96228 25.99307)</t>
+          <t>POINT (8.021859999999998 51.41891999999999)</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -29794,52 +29839,61 @@
           <t>2020-04-09T01:00:00</t>
         </is>
       </c>
-      <c r="G528" t="inlineStr"/>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:58:16.184451</t>
+        </is>
+      </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>recovery</t>
+          <t>preparedness</t>
         </is>
       </c>
       <c r="I528" t="b">
         <v>1</v>
       </c>
       <c r="J528" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K528" t="n">
-        <v>11</v>
-      </c>
-      <c r="L528" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>The scope of the service request EMSN-071 is to support the fire department and administration of the City of Arnsberg (Hochsauerland County, State North Rhine-Westphalia, Germany), with designing pre-event preventive measures, as well as incident coordination, in regards of wildfires that could...</t>
+        </is>
+      </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>The scope of the service request EMSN-066 is to delineate the extent and assess damage of 9 to 11 January 2020 flood event, in South-East Iran. As predicted by Copernicus EMS service GloFAS, days of heavy rain from 9 to 11 January 2020 caused severe flooding in southern Iran, in Sistan and Baluchestan, Hormozgan and south of Kerman provinces. Flooding has blocked roads and damaged houses, bridges, crops and infrastructure. Dozens of areas have been left isolated after roads were damaged or block Reservoir and dam change detection (Overview A3) Reference map (Overview A3) Flood delineation (Overview A3) Damage assessment (Overview A3) Reference map (Overview A2) Flood delineation (Overview A2) Damage assessment (Overview A2) Reservoir and dam change detection (Overview A1) Reference map (Overview A1) Flood delineation (Overview A1)</t>
+          <t>The scope of the service request EMSN-071 is to support the fire department and administration of the City of Arnsberg (Hochsauerland County, State North Rhine-Westphalia, Germany), with designing pre-event preventive measures, as well as incident coordination, in regards of wildfires that could hit this territory.
+More than 63% of the town’s area is covered by forest, including several large protected areas; forest plays an important economic role in both tourism and the timber-processing busi Reference map (Overview A1) Land Use Land Cover map (Overview A1) Pre-disaster forest fire hazard (Overview A1) Pre-disaster forest fire exposure (Overview A1)</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>EMSN071</t>
+          <t>EMSN066</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Germany'}]</t>
+          <t>[{'short_name': 'Iran'}]</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'flood', 'name': 'Flood'}</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Wildfires, Preparedness, Arnsberg, Germany</t>
+          <t>Flood delineation and flood damage assessment, Iran</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>POINT (8.02186 51.41892)</t>
+          <t>POINT (58.96228 25.99307)</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -29850,23 +29904,22 @@
       <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>preparedness</t>
+          <t>recovery</t>
         </is>
       </c>
       <c r="I529" t="b">
         <v>1</v>
       </c>
       <c r="J529" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K529" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L529" t="inlineStr"/>
       <c r="M529" t="inlineStr">
         <is>
-          <t>The scope of the service request EMSN-071 is to support the fire department and administration of the City of Arnsberg (Hochsauerland County, State North Rhine-Westphalia, Germany), with designing pre-event preventive measures, as well as incident coordination, in regards of wildfires that could hit this territory.
-More than 63% of the town’s area is covered by forest, including several large protected areas; forest plays an important economic role in both tourism and the timber-processing busi Reference map (Overview A1) Land Use Land Cover map (Overview A1) Pre-disaster forest fire hazard (Overview A1) Pre-disaster forest fire exposure (Overview A1)</t>
+          <t>The scope of the service request EMSN-066 is to delineate the extent and assess damage of 9 to 11 January 2020 flood event, in South-East Iran. As predicted by Copernicus EMS service GloFAS, days of heavy rain from 9 to 11 January 2020 caused severe flooding in southern Iran, in Sistan and Baluchestan, Hormozgan and south of Kerman provinces. Flooding has blocked roads and damaged houses, bridges, crops and infrastructure. Dozens of areas have been left isolated after roads were damaged or block Reservoir and dam change detection (Overview A3) Reference map (Overview A3) Flood delineation (Overview A3) Damage assessment (Overview A3) Reference map (Overview A2) Flood delineation (Overview A2) Damage assessment (Overview A2) Reservoir and dam change detection (Overview A1) Reference map (Overview A1) Flood delineation (Overview A1)</t>
         </is>
       </c>
     </row>
@@ -30544,27 +30597,27 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>EMSN064</t>
+          <t>EMSN063</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Ukraine'}]</t>
+          <t>[{'short_name': 'Nigeria'}]</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'humanitarian', 'name': 'Humanitarian Crisis'}</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Detection and mapping of ground deformations of anthropogenic sinkholes</t>
+          <t>Crop change detection in conflict areas, Nigeria</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>POINT (23.87015 47.95273)</t>
+          <t>POINT (12.36791 13.49555)</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -30582,74 +30635,74 @@
         <v>1</v>
       </c>
       <c r="J542" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K542" t="n">
+        <v>5</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>EMSN063 was activated to support the World Food Program in order to provide information about cropland change and population affected by cropland loss in the north-eastern Nigerian Borno region over 5 AOIs, helping to understand the food security situation. The area under focus is has not been ac...</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>EMSN063 was activated to support the World Food Program in order to provide information about cropland change and population affected by cropland loss in the north-eastern Nigerian Borno region over 5 AOIs, helping to understand the food security situation. The area under focus is has not been accessed for several years and little to no data could be collected due to intense fighting activities by Boko Haram since 2010.
+The aim of the activation is a crop change analysis implemented between the Crop Change Crop Change Crop Change Crop Change Crop Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>EMSN064</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>[{'short_name': 'Ukraine'}]</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>{'slug': 'other', 'name': 'Other'}</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Detection and mapping of ground deformations of anthropogenic sinkholes</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>POINT (23.87015 47.95273)</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2020-02-14T01:00:00</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>recovery</t>
+        </is>
+      </c>
+      <c r="I543" t="b">
+        <v>1</v>
+      </c>
+      <c r="J543" t="n">
+        <v>1</v>
+      </c>
+      <c r="K543" t="n">
         <v>4</v>
       </c>
-      <c r="L542" t="inlineStr"/>
-      <c r="M542" t="inlineStr">
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
         <is>
           <t>The scope is the assessment of the sinkhole risk in the mining area of Solotvyno, Zakarpattya region, Ukraine, in continuation of the previous serviceEMSN-030. A systematic salt mining began in the second half of the 18th century with up to eight salt mines in operation. Although the flooding with ground water and the erosion of subsoil salt layers began in the early 2000s, the extraction of salt had not been completely stopped until 2010, when in December 3000m³ of land collapsed.
 The aim is t Surface Dynamics Map Subsidence and Landslide Risk Map Reference map Land use/ land cover map</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>EMSN063</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>[{'short_name': 'Nigeria'}]</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>{'slug': 'humanitarian', 'name': 'Humanitarian Crisis'}</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Crop change detection in conflict areas, Nigeria</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>POINT (12.36791 13.49555)</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>2020-02-14T01:00:00</t>
-        </is>
-      </c>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>recovery</t>
-        </is>
-      </c>
-      <c r="I543" t="b">
-        <v>1</v>
-      </c>
-      <c r="J543" t="n">
-        <v>5</v>
-      </c>
-      <c r="K543" t="n">
-        <v>5</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>EMSN063 was activated to support the World Food Program in order to provide information about cropland change and population affected by cropland loss in the north-eastern Nigerian Borno region over 5 AOIs, helping to understand the food security situation. The area under focus is has not been ac...</t>
-        </is>
-      </c>
-      <c r="M543" t="inlineStr">
-        <is>
-          <t>EMSN063 was activated to support the World Food Program in order to provide information about cropland change and population affected by cropland loss in the north-eastern Nigerian Borno region over 5 AOIs, helping to understand the food security situation. The area under focus is has not been accessed for several years and little to no data could be collected due to intense fighting activities by Boko Haram since 2010.
-The aim of the activation is a crop change analysis implemented between the Crop Change Crop Change Crop Change Crop Change Crop Change</t>
         </is>
       </c>
     </row>
@@ -35732,7 +35785,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'earthquake', 'name': 'Earthquake'}</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -35742,7 +35795,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>POINT (119.905 -1.155)</t>
+          <t>POINT (119.905 -1.1550000000000045)</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -35750,7 +35803,11 @@
           <t>2018-12-21T01:00:00</t>
         </is>
       </c>
-      <c r="G636" t="inlineStr"/>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:20:47.428207</t>
+        </is>
+      </c>
       <c r="H636" t="inlineStr">
         <is>
           <t>preparedness</t>
@@ -35765,11 +35822,16 @@
       <c r="K636" t="n">
         <v>3</v>
       </c>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>The specific service implementation focuses on the generation of information relating to the horizontal and vertical displacement across the AOI as a consequence of the 28th September earthquake (7.5 magnitude) that hit the island of Sulawesi, Indonesia, triggering a number of aftershocks.
+The...</t>
+        </is>
+      </c>
       <c r="M636" t="inlineStr">
         <is>
-          <t xml:space="preserve">The specific service implementation focuses on the generation of information relating to the horizontal and vertical displacement across the AOI as a consequence of the 28th September earthquake (7.5 magnitude) that hit the island of Sulawesi, Indonesia, triggering a number of aftershocks.
-The analysis involved satellite SAR imagery (Sentinel-1) processing through an offset tracking technique. Ascending and Descending images were selected, both prior to and after the event. This allowed the g Vertical Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia  E-W Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia  N-S Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia </t>
+          <t>The specific service implementation focuses on the generation of information relating to the horizontal and vertical displacement across the AOI as a consequence of the 28th September earthquake (7.5 magnitude) that hit the island of Sulawesi, Indonesia, triggering a number of aftershocks.
+The analysis involved satellite SAR imagery (Sentinel-1) processing through an offset tracking technique. Ascending and Descending images were selected, both prior to and after the event. This allowed the g Vertical Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia  E-W Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia  N-S Displacement Map - Ground Deformation analyses, Sulawesi, Indonesia</t>
         </is>
       </c>
     </row>
@@ -39467,7 +39529,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'volcan', 'name': 'Volcanic Activity'}</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -39477,7 +39539,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>POINT (29.23042 -1.60781)</t>
+          <t>POINT (29.230420000000002 -1.6078100000000062)</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -39485,7 +39547,11 @@
           <t>2018-03-30T01:00:00</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr"/>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:57:24.219138</t>
+        </is>
+      </c>
       <c r="H700" t="inlineStr">
         <is>
           <t>preparedness</t>
@@ -39500,7 +39566,11 @@
       <c r="K700" t="n">
         <v>4</v>
       </c>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>The purpose of the requested mapping is to generate comprehensive knowledge through performing pre-disaster situation analysis, concerning a potential eruption of the Nyiragongo volcano located near to Goma, capital of North Kivu province in the eastern Democratic Republic of the Congo (DRC)....</t>
+        </is>
+      </c>
       <c r="M700" t="inlineStr">
         <is>
           <t>The purpose of the requested mapping is to generate comprehensive knowledge through performing pre-disaster situation analysis, concerning a potential eruption of the Nyiragongo volcano located near to Goma, capital of North Kivu province in the eastern Democratic Republic of the Congo (DRC).
@@ -41448,7 +41518,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'storm', 'name': 'Storm'}</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -41466,7 +41536,11 @@
           <t>2017-09-25T01:00:00</t>
         </is>
       </c>
-      <c r="G733" t="inlineStr"/>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:57:13.571155</t>
+        </is>
+      </c>
       <c r="H733" t="inlineStr">
         <is>
           <t>preparedness</t>
@@ -41481,7 +41555,11 @@
       <c r="K733" t="n">
         <v>12</v>
       </c>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>Pre-disaster situation analyses for four locations in Italy: Priolo (Sicilia), Otranto (Puglia), Metaponto (Basilicatta) and Catanzaro Lido (Calabria). All of the AOIs are located on the coast, on the front line of any eventual tsunami. A correct and detailed capture of assets was essential in or...</t>
+        </is>
+      </c>
       <c r="M733" t="inlineStr">
         <is>
           <t>Pre-disaster situation analyses for four locations in Italy: Priolo (Sicilia), Otranto (Puglia), Metaponto (Basilicatta) and Catanzaro Lido (Calabria). All of the AOIs are located on the coast, on the front line of any eventual tsunami. A correct and detailed capture of assets was essential in order to improve and perform detailed response and evacuation programs and  in order to minimize casualties in a disaster situation.
@@ -44249,27 +44327,27 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>EMSN038</t>
+          <t>EMSN033</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>[{'short_name': 'Peru'}]</t>
+          <t>[{'short_name': 'Libya'}]</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'humanitarian', 'name': 'Humanitarian Crisis'}</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>Post-disaster situation analyses of flood and landslides in Lima, Peru</t>
+          <t>Satellite based conflict damage assessment of two selected cities in Libya</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>POINT (-76.9593 -11.88692)</t>
+          <t>POINT (21.79769 28.28583)</t>
         </is>
       </c>
       <c r="F783" t="inlineStr">
@@ -44287,13 +44365,77 @@
         <v>1</v>
       </c>
       <c r="J783" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K783" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="L783" t="inlineStr"/>
       <c r="M783" t="inlineStr">
+        <is>
+          <t>EMSN033 is a satellite based conflict damage assessment of three selected areas of interest (AOIs) in Libya: Benghazi city, Benghazi´s Aerodrome (El Benina) and Al-Jawf.
+The scope of the map production was to generate general reference content of the pre-event situation, including administrative boundaries, road network, urban land use classification, urban sprawl and urban expansion velocity analysis.
+The core users of the map are the Foreign Policy Instruments (FPI) of the European Commi Urban velocity map (Overview A1) Urban velocity map (Overview A1) Urban Sprawl map (Overview A1) Urban Sprawl map (Overview A1) Urban Sprawl map (Overview A1) Reference map (Overview A1) Reference map (Overview A1) Reference map (Overview A1) Reference map (Detail B2) Reference map (Detail B2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>EMSN038</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>[{'short_name': 'Peru'}]</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>{'slug': 'flood', 'name': 'Flood'}</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Post-disaster situation analyses of flood and landslides in Lima, Peru</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>POINT (-76.95929999999998 -11.886920000000007)</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>2017-03-08T01:00:00</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:57:00.365888</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>recovery</t>
+        </is>
+      </c>
+      <c r="I784" t="b">
+        <v>1</v>
+      </c>
+      <c r="J784" t="n">
+        <v>1</v>
+      </c>
+      <c r="K784" t="n">
+        <v>5</v>
+      </c>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>Post-disaster situation analyses of the flood that occurred in mid-March 2017 in Lima, Peru. Heavy rains affected nearly all of Peru leading to catastrophic flooding and landslides. In northern Lima, flooded areas along Rímac and Chillón rivers were reported.
+The scope of the map production is t...</t>
+        </is>
+      </c>
+      <c r="M784" t="inlineStr">
         <is>
           <t>Post-disaster situation analyses of the flood that occurred in mid-March 2017 in Lima, Peru. Heavy rains affected nearly all of Peru leading to catastrophic flooding and landslides. In northern Lima, flooded areas along Rímac and Chillón rivers were reported.
 The scope of the map production is to generate a pre-event reference content, delineate the event impact and grade the damage, focusing on people and assets, with particular attention to schools in the metropolitan area  of northern Lima.
@@ -44301,61 +44443,6 @@
         </is>
       </c>
     </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>EMSN033</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>[{'short_name': 'Libya'}]</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>{'slug': 'humanitarian', 'name': 'Humanitarian Crisis'}</t>
-        </is>
-      </c>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>Satellite based conflict damage assessment of two selected cities in Libya</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr">
-        <is>
-          <t>POINT (21.79769 28.28583)</t>
-        </is>
-      </c>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>2017-03-08T01:00:00</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr"/>
-      <c r="H784" t="inlineStr">
-        <is>
-          <t>recovery</t>
-        </is>
-      </c>
-      <c r="I784" t="b">
-        <v>1</v>
-      </c>
-      <c r="J784" t="n">
-        <v>3</v>
-      </c>
-      <c r="K784" t="n">
-        <v>68</v>
-      </c>
-      <c r="L784" t="inlineStr"/>
-      <c r="M784" t="inlineStr">
-        <is>
-          <t>EMSN033 is a satellite based conflict damage assessment of three selected areas of interest (AOIs) in Libya: Benghazi city, Benghazi´s Aerodrome (El Benina) and Al-Jawf.
-The scope of the map production was to generate general reference content of the pre-event situation, including administrative boundaries, road network, urban land use classification, urban sprawl and urban expansion velocity analysis.
-The core users of the map are the Foreign Policy Instruments (FPI) of the European Commi Urban velocity map (Overview A1) Urban velocity map (Overview A1) Urban Sprawl map (Overview A1) Urban Sprawl map (Overview A1) Urban Sprawl map (Overview A1) Reference map (Overview A1) Reference map (Overview A1) Reference map (Overview A1) Reference map (Detail B2) Reference map (Detail B2)</t>
-        </is>
-      </c>
-    </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
@@ -44598,7 +44685,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -44608,7 +44695,7 @@
       </c>
       <c r="E789" t="inlineStr">
         <is>
-          <t>POINT (-17.035 32.71)</t>
+          <t>POINT (-17.035 32.709999999999994)</t>
         </is>
       </c>
       <c r="F789" t="inlineStr">
@@ -44616,7 +44703,11 @@
           <t>2016-11-11T01:00:00</t>
         </is>
       </c>
-      <c r="G789" t="inlineStr"/>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:56:15.242783</t>
+        </is>
+      </c>
       <c r="H789" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -44631,7 +44722,11 @@
       <c r="K789" t="n">
         <v>92</v>
       </c>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>This activation focuses on damage assessment and landslide risk assessment relating to major forest fires in the municipalities of Funchal and Calheta, Madeira in August 2016. Key assets (infrastructure, environment, human life, economic sustainability, etc.) are also identified and related with...</t>
+        </is>
+      </c>
       <c r="M789" t="inlineStr">
         <is>
           <t>This activation focuses on damage assessment and landslide risk assessment relating to major forest fires in the municipalities of Funchal and Calheta, Madeira in August 2016. Key assets (infrastructure, environment, human life, economic sustainability, etc.) are also identified and related with the severity of impact. The service involves:
@@ -44709,7 +44804,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -44719,7 +44814,7 @@
       </c>
       <c r="E791" t="inlineStr">
         <is>
-          <t>POINT (-8.21612 40.8984)</t>
+          <t>POINT (-8.21612 40.898399999999995)</t>
         </is>
       </c>
       <c r="F791" t="inlineStr">
@@ -44727,7 +44822,11 @@
           <t>2016-10-17T01:00:00</t>
         </is>
       </c>
-      <c r="G791" t="inlineStr"/>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:56:25.083357</t>
+        </is>
+      </c>
       <c r="H791" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -44742,7 +44841,12 @@
       <c r="K791" t="n">
         <v>120</v>
       </c>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>The scope of the service request EMSN032 is to generate damage delineation and grading maps of 41 different forest fires in mainland Portugal that occurred in July and August 2016. The affected area had an overall extent of 887 km².
+The service consists of detailed reference maps and damage de...</t>
+        </is>
+      </c>
       <c r="M791" t="inlineStr">
         <is>
           <t>The scope of the service request EMSN032 is to generate damage delineation and grading maps of 41 different forest fires in mainland Portugal that occurred in July and August 2016. The affected area had an overall extent of 887 km².
@@ -45831,7 +45935,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'industrial', 'name': 'Industrial Accident'}</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -45841,7 +45945,7 @@
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>POINT (1.615 41.585)</t>
+          <t>POINT (1.6149999999999998 41.584999999999994)</t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
@@ -45849,7 +45953,11 @@
           <t>2016-06-27T01:00:00</t>
         </is>
       </c>
-      <c r="G811" t="inlineStr"/>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:54:38.763285</t>
+        </is>
+      </c>
       <c r="H811" t="inlineStr">
         <is>
           <t>preparedness</t>
@@ -45864,7 +45972,11 @@
       <c r="K811" t="n">
         <v>200</v>
       </c>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>This activation concerns the monitoring of a toxic cloud in the hours following a chemical explosion on February 12th, 2015 in Igualada, in the province of Barcelona, Spain. The accident at Simar SA company (distribution and logistics of chemicals) was the result of an explosive chemical reaction...</t>
+        </is>
+      </c>
       <c r="M811" t="inlineStr">
         <is>
           <t>This activation concerns the monitoring of a toxic cloud in the hours following a chemical explosion on February 12th, 2015 in Igualada, in the province of Barcelona, Spain. The accident at Simar SA company (distribution and logistics of chemicals) was the result of an explosive chemical reaction, resulting from a mixture of Nitric acid with ferric sulfide and a third substance which has not been determined. The chemical reaction between these elements resulted in explosion and release of a toxi Reference Mapping Land Use and Land Cover Map Industrial Accidents Risk Assessment 2015 - Toxic Cloud Concentration Industrial Accidents Risk Assessment 2015 - Toxic Cloud Total Column</t>
@@ -45984,51 +46096,121 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
+          <t>EMSN025</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>[{'short_name': 'Greece'}]</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>Forest fire damage assessment – Planning and Recovery</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>POINT (25.579999999999995 38.34999999999999)</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>2016-06-13T01:00:00</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:54:14.348681</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>recovery</t>
+        </is>
+      </c>
+      <c r="I814" t="b">
+        <v>1</v>
+      </c>
+      <c r="J814" t="n">
+        <v>6</v>
+      </c>
+      <c r="K814" t="n">
+        <v>84</v>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>This activation focuses on damage delineation and grading maps for selected forest fires in Greece in the summer of 2015. Additionally, loss assessment and risk assessment products (landslide/erosion and flash flood) including, mitigation and recovery measures are analysed. Key assets (infrastruc...</t>
+        </is>
+      </c>
+      <c r="M814" t="inlineStr">
+        <is>
+          <t>This activation focuses on damage delineation and grading maps for selected forest fires in Greece in the summer of 2015. Additionally, loss assessment and risk assessment products (landslide/erosion and flash flood) including, mitigation and recovery measures are analysed. Key assets (infrastructure, environment, human life, economic sustainability, etc.) are also identified and related with the probability and severity (impact) of potential (secondary) hazards.
+The activation was triggered  Assets and Trans. Networks at Risk Map - Flood Risk Assessment (Details, Tile 6011) Soil Loss Map - Erosion Hazard Zones (Details, Tile 6011) Assets and Trans. Networks at Risk Map - Landslide Risk Assessment (Details, Tile 6011) Land Use and Land Cover Map - Multiple Natural Hazard Risk Assessment (Details, Tile 6011) Biomass Loss Assessment Map - Fire Damage Assessment (Details, Tile 6011) Delineation and Grading Map - Fire Damage Assessment (Details, Tile 6011) Reference Map - Multiple Natural Hazard Risk Assessment (Details, Tile 6011) Assets and Trans. Networks at Risk Map - Flood Risk Assessment (Details, Tile 5010) Soil Loss Map - Erosion Hazard Zones (Details, Tile 5010) Assets and Trans. Networks at Risk Map - Landslide Risk Assessment (Details, Tile 5010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
           <t>EMSN029</t>
         </is>
       </c>
-      <c r="B814" t="inlineStr">
+      <c r="B815" t="inlineStr">
         <is>
           <t>[{'short_name': 'Spain'}]</t>
         </is>
       </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D814" t="inlineStr">
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
         <is>
           <t>Forest fire damage assessment - new risks and mitigation</t>
         </is>
       </c>
-      <c r="E814" t="inlineStr">
-        <is>
-          <t>POINT (-0.54267 40.01795)</t>
-        </is>
-      </c>
-      <c r="F814" t="inlineStr">
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>POINT (-0.54267 40.01794999999999)</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
         <is>
           <t>2016-06-13T01:00:00</t>
         </is>
       </c>
-      <c r="G814" t="inlineStr"/>
-      <c r="H814" t="inlineStr">
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:55:03.938401</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
         <is>
           <t>recovery</t>
         </is>
       </c>
-      <c r="I814" t="b">
-        <v>1</v>
-      </c>
-      <c r="J814" t="n">
-        <v>1</v>
-      </c>
-      <c r="K814" t="n">
+      <c r="I815" t="b">
+        <v>1</v>
+      </c>
+      <c r="J815" t="n">
+        <v>1</v>
+      </c>
+      <c r="K815" t="n">
         <v>8</v>
       </c>
-      <c r="L814" t="inlineStr"/>
-      <c r="M814" t="inlineStr">
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>Two areas of Special Areas of Conservation: Sierra de Espadn and Curs Alt del riu Millars were hit by a forest fire in July 2015, in the Montn and Caudiel municipalities of the region of Valencia. The analysis of the damage degree and landslide and erosion risk is of key importance for the spatia...</t>
+        </is>
+      </c>
+      <c r="M815" t="inlineStr">
         <is>
           <t>Two areas of Special Areas of Conservation: Sierra de Espadn and Curs Alt del riu Millars were hit by a forest fire in July 2015, in the Montn and Caudiel municipalities of the region of Valencia. The analysis of the damage degree and landslide and erosion risk is of key importance for the spatial and temporal planning of the post-event restoration work. The scope of the activation included:
 Delineation/grading
@@ -46040,60 +46222,6 @@
         </is>
       </c>
     </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>EMSN025</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>[{'short_name': 'Greece'}]</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr">
-        <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
-        </is>
-      </c>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>Forest fire damage assessment – Planning and Recovery</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr">
-        <is>
-          <t>POINT (25.58 38.35)</t>
-        </is>
-      </c>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>2016-06-13T01:00:00</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr"/>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>recovery</t>
-        </is>
-      </c>
-      <c r="I815" t="b">
-        <v>1</v>
-      </c>
-      <c r="J815" t="n">
-        <v>6</v>
-      </c>
-      <c r="K815" t="n">
-        <v>84</v>
-      </c>
-      <c r="L815" t="inlineStr"/>
-      <c r="M815" t="inlineStr">
-        <is>
-          <t>This activation focuses on damage delineation and grading maps for selected forest fires in Greece in the summer of 2015. Additionally, loss assessment and risk assessment products (landslide/erosion and flash flood) including, mitigation and recovery measures are analysed. Key assets (infrastructure, environment, human life, economic sustainability, etc.) are also identified and related with the probability and severity (impact) of potential (secondary) hazards.
-The activation was triggered  Assets and Trans. Networks at Risk Map - Flood Risk Assessment (Details, Tile 6011) Soil Loss Map - Erosion Hazard Zones (Details, Tile 6011) Assets and Trans. Networks at Risk Map - Landslide Risk Assessment (Details, Tile 6011) Land Use and Land Cover Map - Multiple Natural Hazard Risk Assessment (Details, Tile 6011) Biomass Loss Assessment Map - Fire Damage Assessment (Details, Tile 6011) Delineation and Grading Map - Fire Damage Assessment (Details, Tile 6011) Reference Map - Multiple Natural Hazard Risk Assessment (Details, Tile 6011) Assets and Trans. Networks at Risk Map - Flood Risk Assessment (Details, Tile 5010) Soil Loss Map - Erosion Hazard Zones (Details, Tile 5010) Assets and Trans. Networks at Risk Map - Landslide Risk Assessment (Details, Tile 5010)</t>
-        </is>
-      </c>
-    </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
@@ -47565,7 +47693,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'fire', 'name': 'Wildfire'}</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -47583,7 +47711,11 @@
           <t>2015-10-08T01:00:00</t>
         </is>
       </c>
-      <c r="G842" t="inlineStr"/>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:52:53.018046</t>
+        </is>
+      </c>
       <c r="H842" t="inlineStr">
         <is>
           <t>recovery</t>
@@ -49677,7 +49809,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>{'slug': 'other', 'name': 'Other'}</t>
+          <t>{'slug': 'flood', 'name': 'Flood'}</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -49687,7 +49819,7 @@
       </c>
       <c r="E878" t="inlineStr">
         <is>
-          <t>POINT (-65.98114 -14.52834)</t>
+          <t>POINT (-65.98114 -14.528340000000012)</t>
         </is>
       </c>
       <c r="F878" t="inlineStr">
@@ -49695,7 +49827,11 @@
           <t>2014-09-24T01:00:00</t>
         </is>
       </c>
-      <c r="G878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>2026-01-20T09:52:31.470601</t>
+        </is>
+      </c>
       <c r="H878" t="inlineStr">
         <is>
           <t>preparedness</t>
@@ -50746,7 +50882,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>EMSR085</t>
+          <t>EMSR084</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -50756,17 +50892,17 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>{'slug': 'flood', 'name': 'Flood'}</t>
+          <t>{'slug': 'industrial', 'name': 'Industrial Accident'}</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>LuModExercise - Flood in Mertert- Luxembourg</t>
+          <t>LuModExercise - Industrial accident</t>
         </is>
       </c>
       <c r="E897" t="inlineStr">
         <is>
-          <t>POINT (6.47 49.69)</t>
+          <t>POINT (6.44 49.8)</t>
         </is>
       </c>
       <c r="F897" t="inlineStr">
@@ -50776,7 +50912,7 @@
       </c>
       <c r="G897" t="inlineStr">
         <is>
-          <t>2014-05-28T12:18:00</t>
+          <t>2014-05-30T17:11:00</t>
         </is>
       </c>
       <c r="H897" t="inlineStr">
@@ -50796,14 +50932,14 @@
       <c r="L897" t="inlineStr"/>
       <c r="M897" t="inlineStr">
         <is>
-          <t>Mertert Reference Mertert Reference</t>
+          <t>Echternach Reference Echternach Reference</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>EMSR084</t>
+          <t>EMSR085</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -50813,17 +50949,17 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>{'slug': 'industrial', 'name': 'Industrial Accident'}</t>
+          <t>{'slug': 'flood', 'name': 'Flood'}</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>LuModExercise - Industrial accident</t>
+          <t>LuModExercise - Flood in Mertert- Luxembourg</t>
         </is>
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>POINT (6.44 49.8)</t>
+          <t>POINT (6.47 49.69)</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
@@ -50833,7 +50969,7 @@
       </c>
       <c r="G898" t="inlineStr">
         <is>
-          <t>2014-05-30T17:11:00</t>
+          <t>2014-05-28T12:18:00</t>
         </is>
       </c>
       <c r="H898" t="inlineStr">
@@ -50853,7 +50989,7 @@
       <c r="L898" t="inlineStr"/>
       <c r="M898" t="inlineStr">
         <is>
-          <t>Echternach Reference Echternach Reference</t>
+          <t>Mertert Reference Mertert Reference</t>
         </is>
       </c>
     </row>

--- a/outputs/excel/emergency_activities_since_2012.xlsx
+++ b/outputs/excel/emergency_activities_since_2012.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2026-01-21T10:42:38.588817</t>
+          <t>2026-01-28T23:41:38.332304</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
